--- a/data/msrtc/data/data/msrtc_obj_lat_long.xlsx
+++ b/data/msrtc/data/data/msrtc_obj_lat_long.xlsx
@@ -12068,7 +12068,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -12221,6 +12221,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -12597,7 +12603,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -12607,6 +12613,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -46227,7 +46234,7 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A14" activeCellId="2" sqref="A1:A2 A7 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46236,156 +46243,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>1668</v>
+      <c r="A1" s="7" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>114</v>
+      <c r="A2" s="7" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>530</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>434</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>292</v>
+      <c r="A7" s="7" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>632</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1207</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1308</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1138</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>123</v>
+      <c r="A14" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>925</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1748</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>2392</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>693</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>570</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>582</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1931</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>198</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>220</v>
+        <v>925</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>122</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>537</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A30">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>